--- a/metrics/llama31_8b_VLLM_A100.xlsx
+++ b/metrics/llama31_8b_VLLM_A100.xlsx
@@ -11,6 +11,7 @@
     <sheet name="CU_50" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="CU_10" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="CU_5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CU_1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3204,4 +3205,557 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time (seconds)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tokens per Second</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Latency (seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.23518967628479</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>36.83215774575829</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.094687461853027</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B4" t="n">
+        <v>53.93039781597172</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.607141017913818</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" t="n">
+        <v>49.12557413366338</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.295233726501465</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="n">
+        <v>39.30190627302201</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.202889919281006</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29</v>
+      </c>
+      <c r="B7" t="n">
+        <v>45.1293183018731</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.150371074676514</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50.24883586052905</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.184645414352417</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>52.35784343289733</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.046106576919556</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44</v>
+      </c>
+      <c r="B10" t="n">
+        <v>46.5489037539673</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.21836519241333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>49</v>
+      </c>
+      <c r="B11" t="n">
+        <v>45.29334836671736</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.199136972427368</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54</v>
+      </c>
+      <c r="B12" t="n">
+        <v>41.17434802195024</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.865871667861938</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59</v>
+      </c>
+      <c r="B13" t="n">
+        <v>39.27929134957318</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.09730339050293</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64</v>
+      </c>
+      <c r="B14" t="n">
+        <v>42.00717218050831</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.148438215255737</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>69</v>
+      </c>
+      <c r="B15" t="n">
+        <v>39.00769508461137</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.243908405303955</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>74</v>
+      </c>
+      <c r="B16" t="n">
+        <v>42.39175654298347</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.205899477005005</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>79</v>
+      </c>
+      <c r="B17" t="n">
+        <v>42.03055857440024</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.215424299240112</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>84</v>
+      </c>
+      <c r="B18" t="n">
+        <v>42.07767219533033</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.735245227813721</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>89</v>
+      </c>
+      <c r="B19" t="n">
+        <v>39.74083591745074</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7.196122169494629</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>94</v>
+      </c>
+      <c r="B20" t="n">
+        <v>39.846241899898</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.199202537536621</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>99</v>
+      </c>
+      <c r="B21" t="n">
+        <v>41.69566837074876</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.261407375335693</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>104</v>
+      </c>
+      <c r="B22" t="n">
+        <v>40.95458499504036</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.294822216033936</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>109</v>
+      </c>
+      <c r="B23" t="n">
+        <v>42.73081030852262</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.433573007583618</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>114</v>
+      </c>
+      <c r="B24" t="n">
+        <v>40.87318736448266</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.275562047958374</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>119</v>
+      </c>
+      <c r="B25" t="n">
+        <v>42.1049795685387</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.369712352752686</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>124</v>
+      </c>
+      <c r="B26" t="n">
+        <v>43.53126172272781</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.110422611236572</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>129</v>
+      </c>
+      <c r="B27" t="n">
+        <v>41.85600804320578</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.890791177749634</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>134</v>
+      </c>
+      <c r="B28" t="n">
+        <v>42.98363642535104</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.178855180740356</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>139</v>
+      </c>
+      <c r="B29" t="n">
+        <v>44.4773480019337</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.057661771774292</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>144</v>
+      </c>
+      <c r="B30" t="n">
+        <v>42.94350877398225</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.30348014831543</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>149</v>
+      </c>
+      <c r="B31" t="n">
+        <v>42.99909941517569</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.224908351898193</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>154</v>
+      </c>
+      <c r="B32" t="n">
+        <v>43.22100099625998</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.378046751022339</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>159</v>
+      </c>
+      <c r="B33" t="n">
+        <v>41.87032389162554</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.137820482254028</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>164</v>
+      </c>
+      <c r="B34" t="n">
+        <v>42.67714946207144</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.237483501434326</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>169</v>
+      </c>
+      <c r="B35" t="n">
+        <v>41.41916945063782</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.06270170211792</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>174</v>
+      </c>
+      <c r="B36" t="n">
+        <v>42.50127015254866</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.116966009140015</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>179</v>
+      </c>
+      <c r="B37" t="n">
+        <v>43.3183555653308</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.117166042327881</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>184</v>
+      </c>
+      <c r="B38" t="n">
+        <v>44.452042820174</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7.106548309326172</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>189</v>
+      </c>
+      <c r="B39" t="n">
+        <v>43.28357462649635</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7.026099920272827</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>194</v>
+      </c>
+      <c r="B40" t="n">
+        <v>44.290639335972</v>
+      </c>
+      <c r="C40" t="n">
+        <v>7.087254524230957</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>199</v>
+      </c>
+      <c r="B41" t="n">
+        <v>45.12615900408714</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7.104488134384155</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>204</v>
+      </c>
+      <c r="B42" t="n">
+        <v>44.02787982659491</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.178598403930664</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>209</v>
+      </c>
+      <c r="B43" t="n">
+        <v>43.8979812585586</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.081417322158813</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>214</v>
+      </c>
+      <c r="B44" t="n">
+        <v>45.09870999689757</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7.266292810440063</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>219</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44.0736237459227</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7.388747453689575</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>224</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44.16758188691346</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7.105007886886597</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>229</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45.18534406051199</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6.247417449951172</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>234</v>
+      </c>
+      <c r="B48" t="n">
+        <v>44.22428411726106</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.964850902557373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>